--- a/MonitorizacaoOceanica/MonitorizacaoOceanica/dados_servidor.xlsx
+++ b/MonitorizacaoOceanica/MonitorizacaoOceanica/dados_servidor.xlsx
@@ -5886,6 +5886,189 @@
   </x:si>
   <x:si>
     <x:t>2025-05-26T13:30:15.5418655+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:26.4230018Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:29.3454123Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:29.8162896Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:30.2759589Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:30.7294228Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:31.2185973Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:31.7298326Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:32.2482233Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:32.6890361Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:33.0326295Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:33.3050887Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:33.5347959Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:33.7746886Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:34.0006905Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:34.1398635Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:34.2609161Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:34.3996724Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:34.5469304Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:34.6932438Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:34.8110911Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:34.9505614Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:35.0788498Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:35.2526143Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:35.4120972Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:35.5943158Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:35.7430207Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:35.8754540Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:35.9942193Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:36.1148810Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:36.2321597Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:36.3528494Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:36.5128102Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:36.6447688Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:36.7681674Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:36.9025288Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:37.0567883Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:37.2438575Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:37.4147612Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:37.5663235Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:37.6940668Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:37.8697177Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:38.0133312Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:38.1770473Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:38.3308928Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:38.4778059Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:38.6089066Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:38.7513216Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:38.8828582Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:39.0042920Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:55:39.1364155Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:49.0163601+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:51.5708037+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:52.1354803+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:52.6843110+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:53.2161461+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:53.7672830+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:48.8590798+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:48.8591917+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:48.8591954+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:56:48.8591971+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T15:56:56.4382526Z</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -65606,6 +65789,1973 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
+    <x:row r="1853" spans="1:13">
+      <x:c r="A1853" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1853" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1853" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1853" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1853" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1853" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H1853" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1853" s="0" t="s">
+        <x:v>1955</x:v>
+      </x:c>
+      <x:c r="J1853" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1853" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1854" spans="1:13">
+      <x:c r="A1854" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1854" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1854" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1854" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1854" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1854" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H1854" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1854" s="0" t="s">
+        <x:v>1956</x:v>
+      </x:c>
+      <x:c r="J1854" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1854" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1855" spans="1:13">
+      <x:c r="A1855" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1855" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1855" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1855" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1855" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1855" s="0">
+        <x:v>22.2</x:v>
+      </x:c>
+      <x:c r="H1855" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1855" s="0" t="s">
+        <x:v>1957</x:v>
+      </x:c>
+      <x:c r="J1855" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1855" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1856" spans="1:13">
+      <x:c r="A1856" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1856" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1856" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1856" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1856" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1856" s="0">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H1856" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1856" s="0" t="s">
+        <x:v>1958</x:v>
+      </x:c>
+      <x:c r="J1856" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1856" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1857" spans="1:13">
+      <x:c r="A1857" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1857" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1857" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1857" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1857" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1857" s="0">
+        <x:v>22.8</x:v>
+      </x:c>
+      <x:c r="H1857" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1857" s="0" t="s">
+        <x:v>1959</x:v>
+      </x:c>
+      <x:c r="J1857" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1857" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1858" spans="1:13">
+      <x:c r="A1858" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B1858" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1858" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1858" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1858" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1858" s="0">
+        <x:v>19.2</x:v>
+      </x:c>
+      <x:c r="H1858" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1858" s="0" t="s">
+        <x:v>1960</x:v>
+      </x:c>
+      <x:c r="J1858" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1858" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1859" spans="1:13">
+      <x:c r="A1859" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B1859" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1859" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1859" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1859" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1859" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H1859" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1859" s="0" t="s">
+        <x:v>1961</x:v>
+      </x:c>
+      <x:c r="J1859" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1859" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1860" spans="1:13">
+      <x:c r="A1860" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1860" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1860" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1860" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1860" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1860" s="0">
+        <x:v>23.7</x:v>
+      </x:c>
+      <x:c r="H1860" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1860" s="0" t="s">
+        <x:v>1962</x:v>
+      </x:c>
+      <x:c r="J1860" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1860" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1861" spans="1:13">
+      <x:c r="A1861" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B1861" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1861" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1861" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1861" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1861" s="0">
+        <x:v>20.7</x:v>
+      </x:c>
+      <x:c r="H1861" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1861" s="0" t="s">
+        <x:v>1963</x:v>
+      </x:c>
+      <x:c r="J1861" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1861" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1862" spans="1:13">
+      <x:c r="A1862" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B1862" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1862" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1862" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1862" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1862" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H1862" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1862" s="0" t="s">
+        <x:v>1964</x:v>
+      </x:c>
+      <x:c r="J1862" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1862" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1863" spans="1:13">
+      <x:c r="A1863" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B1863" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1863" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1863" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1863" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1863" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H1863" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1863" s="0" t="s">
+        <x:v>1965</x:v>
+      </x:c>
+      <x:c r="J1863" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1863" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1864" spans="1:13">
+      <x:c r="A1864" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B1864" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1864" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1864" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1864" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1864" s="0">
+        <x:v>21.2</x:v>
+      </x:c>
+      <x:c r="H1864" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1864" s="0" t="s">
+        <x:v>1966</x:v>
+      </x:c>
+      <x:c r="J1864" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1864" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1865" spans="1:13">
+      <x:c r="A1865" s="0">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B1865" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1865" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1865" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1865" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1865" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1865" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1865" s="0" t="s">
+        <x:v>1967</x:v>
+      </x:c>
+      <x:c r="J1865" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1865" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1866" spans="1:13">
+      <x:c r="A1866" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B1866" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1866" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1866" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1866" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1866" s="0">
+        <x:v>18.3</x:v>
+      </x:c>
+      <x:c r="H1866" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1866" s="0" t="s">
+        <x:v>1968</x:v>
+      </x:c>
+      <x:c r="J1866" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1866" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1867" spans="1:13">
+      <x:c r="A1867" s="0">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B1867" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1867" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1867" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1867" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1867" s="0">
+        <x:v>22.6</x:v>
+      </x:c>
+      <x:c r="H1867" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1867" s="0" t="s">
+        <x:v>1969</x:v>
+      </x:c>
+      <x:c r="J1867" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1867" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1868" spans="1:13">
+      <x:c r="A1868" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B1868" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1868" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1868" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1868" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1868" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H1868" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1868" s="0" t="s">
+        <x:v>1970</x:v>
+      </x:c>
+      <x:c r="J1868" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1868" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1869" spans="1:13">
+      <x:c r="A1869" s="0">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B1869" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1869" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1869" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1869" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1869" s="0">
+        <x:v>20.2</x:v>
+      </x:c>
+      <x:c r="H1869" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1869" s="0" t="s">
+        <x:v>1971</x:v>
+      </x:c>
+      <x:c r="J1869" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1869" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1870" spans="1:13">
+      <x:c r="A1870" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B1870" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1870" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1870" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1870" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1870" s="0">
+        <x:v>18.7</x:v>
+      </x:c>
+      <x:c r="H1870" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1870" s="0" t="s">
+        <x:v>1972</x:v>
+      </x:c>
+      <x:c r="J1870" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1870" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1871" spans="1:13">
+      <x:c r="A1871" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1871" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1871" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1871" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1871" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1871" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H1871" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1871" s="0" t="s">
+        <x:v>1973</x:v>
+      </x:c>
+      <x:c r="J1871" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1871" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1872" spans="1:13">
+      <x:c r="A1872" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B1872" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1872" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1872" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1872" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1872" s="0">
+        <x:v>24.7</x:v>
+      </x:c>
+      <x:c r="H1872" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1872" s="0" t="s">
+        <x:v>1974</x:v>
+      </x:c>
+      <x:c r="J1872" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1872" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1873" spans="1:13">
+      <x:c r="A1873" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B1873" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1873" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1873" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1873" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1873" s="0">
+        <x:v>25.8</x:v>
+      </x:c>
+      <x:c r="H1873" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1873" s="0" t="s">
+        <x:v>1975</x:v>
+      </x:c>
+      <x:c r="J1873" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1873" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1874" spans="1:13">
+      <x:c r="A1874" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B1874" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1874" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1874" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1874" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1874" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1874" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1874" s="0" t="s">
+        <x:v>1976</x:v>
+      </x:c>
+      <x:c r="J1874" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1874" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1875" spans="1:13">
+      <x:c r="A1875" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B1875" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1875" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1875" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1875" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1875" s="0">
+        <x:v>18.3</x:v>
+      </x:c>
+      <x:c r="H1875" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1875" s="0" t="s">
+        <x:v>1977</x:v>
+      </x:c>
+      <x:c r="J1875" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1875" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1876" spans="1:13">
+      <x:c r="A1876" s="0">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B1876" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1876" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1876" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1876" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1876" s="0">
+        <x:v>20.1</x:v>
+      </x:c>
+      <x:c r="H1876" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1876" s="0" t="s">
+        <x:v>1978</x:v>
+      </x:c>
+      <x:c r="J1876" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1876" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1877" spans="1:13">
+      <x:c r="A1877" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B1877" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1877" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1877" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1877" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1877" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H1877" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1877" s="0" t="s">
+        <x:v>1979</x:v>
+      </x:c>
+      <x:c r="J1877" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1877" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1878" spans="1:13">
+      <x:c r="A1878" s="0">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B1878" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1878" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1878" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1878" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1878" s="0">
+        <x:v>25.8</x:v>
+      </x:c>
+      <x:c r="H1878" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1878" s="0" t="s">
+        <x:v>1980</x:v>
+      </x:c>
+      <x:c r="J1878" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1878" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1879" spans="1:13">
+      <x:c r="A1879" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B1879" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1879" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1879" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1879" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1879" s="0">
+        <x:v>23.2</x:v>
+      </x:c>
+      <x:c r="H1879" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1879" s="0" t="s">
+        <x:v>1981</x:v>
+      </x:c>
+      <x:c r="J1879" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1879" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1880" spans="1:13">
+      <x:c r="A1880" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B1880" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1880" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1880" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1880" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1880" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1880" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1880" s="0" t="s">
+        <x:v>1982</x:v>
+      </x:c>
+      <x:c r="J1880" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1880" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1881" spans="1:13">
+      <x:c r="A1881" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B1881" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1881" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1881" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1881" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1881" s="0">
+        <x:v>24.8</x:v>
+      </x:c>
+      <x:c r="H1881" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1881" s="0" t="s">
+        <x:v>1983</x:v>
+      </x:c>
+      <x:c r="J1881" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1881" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1882" spans="1:13">
+      <x:c r="A1882" s="0">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B1882" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1882" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1882" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1882" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1882" s="0">
+        <x:v>25.1</x:v>
+      </x:c>
+      <x:c r="H1882" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1882" s="0" t="s">
+        <x:v>1984</x:v>
+      </x:c>
+      <x:c r="J1882" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1882" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1883" spans="1:13">
+      <x:c r="A1883" s="0">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B1883" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1883" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1883" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1883" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1883" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1883" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1883" s="0" t="s">
+        <x:v>1985</x:v>
+      </x:c>
+      <x:c r="J1883" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1883" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1884" spans="1:13">
+      <x:c r="A1884" s="0">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B1884" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1884" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1884" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1884" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1884" s="0">
+        <x:v>24.3</x:v>
+      </x:c>
+      <x:c r="H1884" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1884" s="0" t="s">
+        <x:v>1986</x:v>
+      </x:c>
+      <x:c r="J1884" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1884" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1885" spans="1:13">
+      <x:c r="A1885" s="0">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B1885" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1885" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1885" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1885" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1885" s="0">
+        <x:v>19.9</x:v>
+      </x:c>
+      <x:c r="H1885" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1885" s="0" t="s">
+        <x:v>1987</x:v>
+      </x:c>
+      <x:c r="J1885" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1885" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1886" spans="1:13">
+      <x:c r="A1886" s="0">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B1886" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1886" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1886" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1886" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1886" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H1886" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1886" s="0" t="s">
+        <x:v>1988</x:v>
+      </x:c>
+      <x:c r="J1886" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1886" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1887" spans="1:13">
+      <x:c r="A1887" s="0">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B1887" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1887" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1887" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1887" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1887" s="0">
+        <x:v>22.9</x:v>
+      </x:c>
+      <x:c r="H1887" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1887" s="0" t="s">
+        <x:v>1989</x:v>
+      </x:c>
+      <x:c r="J1887" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1887" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1888" spans="1:13">
+      <x:c r="A1888" s="0">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B1888" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1888" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1888" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1888" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1888" s="0">
+        <x:v>24.9</x:v>
+      </x:c>
+      <x:c r="H1888" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1888" s="0" t="s">
+        <x:v>1990</x:v>
+      </x:c>
+      <x:c r="J1888" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1888" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1889" spans="1:13">
+      <x:c r="A1889" s="0">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B1889" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1889" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1889" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1889" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1889" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H1889" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1889" s="0" t="s">
+        <x:v>1991</x:v>
+      </x:c>
+      <x:c r="J1889" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1889" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1890" spans="1:13">
+      <x:c r="A1890" s="0">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B1890" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1890" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1890" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1890" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1890" s="0">
+        <x:v>20.6</x:v>
+      </x:c>
+      <x:c r="H1890" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1890" s="0" t="s">
+        <x:v>1992</x:v>
+      </x:c>
+      <x:c r="J1890" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1890" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1891" spans="1:13">
+      <x:c r="A1891" s="0">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B1891" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1891" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1891" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1891" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1891" s="0">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H1891" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1891" s="0" t="s">
+        <x:v>1993</x:v>
+      </x:c>
+      <x:c r="J1891" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1891" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1892" spans="1:13">
+      <x:c r="A1892" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1892" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1892" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1892" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1892" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1892" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H1892" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1892" s="0" t="s">
+        <x:v>1994</x:v>
+      </x:c>
+      <x:c r="J1892" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1892" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1893" spans="1:13">
+      <x:c r="A1893" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B1893" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1893" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1893" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1893" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1893" s="0">
+        <x:v>25.1</x:v>
+      </x:c>
+      <x:c r="H1893" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1893" s="0" t="s">
+        <x:v>1995</x:v>
+      </x:c>
+      <x:c r="J1893" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1893" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1894" spans="1:13">
+      <x:c r="A1894" s="0">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B1894" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1894" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1894" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1894" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1894" s="0">
+        <x:v>23.4</x:v>
+      </x:c>
+      <x:c r="H1894" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1894" s="0" t="s">
+        <x:v>1996</x:v>
+      </x:c>
+      <x:c r="J1894" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1894" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1895" spans="1:13">
+      <x:c r="A1895" s="0">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B1895" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1895" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1895" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1895" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1895" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H1895" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1895" s="0" t="s">
+        <x:v>1997</x:v>
+      </x:c>
+      <x:c r="J1895" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1895" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1896" spans="1:13">
+      <x:c r="A1896" s="0">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B1896" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1896" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1896" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1896" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1896" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H1896" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1896" s="0" t="s">
+        <x:v>1998</x:v>
+      </x:c>
+      <x:c r="J1896" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1896" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1897" spans="1:13">
+      <x:c r="A1897" s="0">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B1897" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1897" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1897" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1897" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1897" s="0">
+        <x:v>25.5</x:v>
+      </x:c>
+      <x:c r="H1897" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1897" s="0" t="s">
+        <x:v>1999</x:v>
+      </x:c>
+      <x:c r="J1897" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1897" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1898" spans="1:13">
+      <x:c r="A1898" s="0">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B1898" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1898" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1898" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1898" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1898" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1898" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1898" s="0" t="s">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="J1898" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1898" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1899" spans="1:13">
+      <x:c r="A1899" s="0">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B1899" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1899" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1899" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1899" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1899" s="0">
+        <x:v>23.4</x:v>
+      </x:c>
+      <x:c r="H1899" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1899" s="0" t="s">
+        <x:v>2001</x:v>
+      </x:c>
+      <x:c r="J1899" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1899" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1900" spans="1:13">
+      <x:c r="A1900" s="0">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B1900" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1900" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1900" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1900" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1900" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H1900" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1900" s="0" t="s">
+        <x:v>2002</x:v>
+      </x:c>
+      <x:c r="J1900" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1900" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1901" spans="1:13">
+      <x:c r="A1901" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B1901" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1901" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1901" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1901" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1901" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H1901" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1901" s="0" t="s">
+        <x:v>2003</x:v>
+      </x:c>
+      <x:c r="J1901" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1901" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1902" spans="1:13">
+      <x:c r="A1902" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B1902" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1902" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1902" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1902" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1902" s="0">
+        <x:v>20.6</x:v>
+      </x:c>
+      <x:c r="H1902" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1902" s="0" t="s">
+        <x:v>2004</x:v>
+      </x:c>
+      <x:c r="J1902" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1902" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1903" spans="1:13">
+      <x:c r="A1903" s="0">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B1903" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1903" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1903" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1903" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1903" s="0">
+        <x:v>21.4</x:v>
+      </x:c>
+      <x:c r="H1903" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1903" s="0" t="s">
+        <x:v>2005</x:v>
+      </x:c>
+      <x:c r="J1903" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1903" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1904" spans="1:13">
+      <x:c r="A1904" s="0">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B1904" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1904" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1904" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1904" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1904" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H1904" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1904" s="0" t="s">
+        <x:v>2006</x:v>
+      </x:c>
+      <x:c r="J1904" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1904" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1905" spans="1:13">
+      <x:c r="A1905" s="0">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1905" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1905" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1905" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1905" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1905" s="0">
+        <x:v>20.2</x:v>
+      </x:c>
+      <x:c r="H1905" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1905" s="0" t="s">
+        <x:v>2007</x:v>
+      </x:c>
+      <x:c r="J1905" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1905" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1906" spans="1:13">
+      <x:c r="A1906" s="0">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B1906" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1906" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1906" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1906" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1906" s="0">
+        <x:v>992.4</x:v>
+      </x:c>
+      <x:c r="H1906" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1906" s="0" t="s">
+        <x:v>2008</x:v>
+      </x:c>
+      <x:c r="J1906" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1906" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1907" spans="1:13">
+      <x:c r="A1907" s="0">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B1907" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1907" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1907" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1907" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1907" s="0">
+        <x:v>84.5</x:v>
+      </x:c>
+      <x:c r="H1907" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1907" s="0" t="s">
+        <x:v>2009</x:v>
+      </x:c>
+      <x:c r="J1907" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1907" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1908" spans="1:13">
+      <x:c r="A1908" s="0">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B1908" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1908" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1908" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1908" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1908" s="0">
+        <x:v>2.9</x:v>
+      </x:c>
+      <x:c r="H1908" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1908" s="0" t="s">
+        <x:v>2010</x:v>
+      </x:c>
+      <x:c r="J1908" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1908" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1909" spans="1:13">
+      <x:c r="A1909" s="0">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B1909" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1909" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1909" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1909" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1909" s="0">
+        <x:v>21.5</x:v>
+      </x:c>
+      <x:c r="G1909" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H1909" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1909" s="0" t="s">
+        <x:v>2011</x:v>
+      </x:c>
+      <x:c r="J1909" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1909" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1910" spans="1:13">
+      <x:c r="A1910" s="0">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B1910" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1910" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1910" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1910" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1910" s="0">
+        <x:v>992.4</x:v>
+      </x:c>
+      <x:c r="G1910" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1910" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1910" s="0" t="s">
+        <x:v>2012</x:v>
+      </x:c>
+      <x:c r="J1910" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1910" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1911" spans="1:13">
+      <x:c r="A1911" s="0">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B1911" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1911" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1911" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1911" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1911" s="0">
+        <x:v>84.5</x:v>
+      </x:c>
+      <x:c r="G1911" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1911" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1911" s="0" t="s">
+        <x:v>2013</x:v>
+      </x:c>
+      <x:c r="J1911" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1911" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1912" spans="1:13">
+      <x:c r="A1912" s="0">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B1912" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1912" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1912" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1912" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1912" s="0">
+        <x:v>2.9</x:v>
+      </x:c>
+      <x:c r="G1912" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1912" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1912" s="0" t="s">
+        <x:v>2014</x:v>
+      </x:c>
+      <x:c r="J1912" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1912" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1913" spans="1:13">
+      <x:c r="A1913" s="0">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B1913" s="0" t="s">
+        <x:v>1584</x:v>
+      </x:c>
+      <x:c r="C1913" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1913" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G1913" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H1913" s="0" t="s">
+        <x:v>1585</x:v>
+      </x:c>
+      <x:c r="I1913" s="0" t="s">
+        <x:v>2015</x:v>
+      </x:c>
+      <x:c r="J1913" s="0" t="s">
+        <x:v>1587</x:v>
+      </x:c>
+      <x:c r="K1913" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="L1913" s="0">
+        <x:v>224.57</x:v>
+      </x:c>
+      <x:c r="M1913" s="0">
+        <x:v>384.909501181771</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/MonitorizacaoOceanica/MonitorizacaoOceanica/dados_servidor.xlsx
+++ b/MonitorizacaoOceanica/MonitorizacaoOceanica/dados_servidor.xlsx
@@ -6069,6 +6069,105 @@
   </x:si>
   <x:si>
     <x:t>2025-06-03T15:56:56.4382526Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:07.4655257+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:10.6143231+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:11.1484779+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:11.5435324+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:12.0785148+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:12.6101528+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:13.1541065+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:13.5740224+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:13.8718405+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:14.0858022+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:14.2908844+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:14.4173039+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:14.5589666+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:14.7316286+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:14.8962960+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:15.0264683+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:15.1479333+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:15.2989287+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:07.3826287+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:07.3827058+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:07.3827085+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:08:07.3827109+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:08:16.2683368Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:09:21.4830042+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:09:21.6229340+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:09:21.7750305+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:09:21.9468109+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:09:21.4751890+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:09:21.4752104+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:09:22.4308190Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:24:23.0393144+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:24:22.9685518+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:24:26.2416680Z</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -67756,6 +67855,1092 @@
         <x:v>384.909501181771</x:v>
       </x:c>
     </x:row>
+    <x:row r="1914" spans="1:13">
+      <x:c r="A1914" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B1914" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1914" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1914" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1914" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1914" s="0">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H1914" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1914" s="0" t="s">
+        <x:v>2016</x:v>
+      </x:c>
+      <x:c r="J1914" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1914" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1915" spans="1:13">
+      <x:c r="A1915" s="0">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B1915" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1915" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1915" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1915" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1915" s="0">
+        <x:v>20.7</x:v>
+      </x:c>
+      <x:c r="H1915" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1915" s="0" t="s">
+        <x:v>2017</x:v>
+      </x:c>
+      <x:c r="J1915" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1915" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1916" spans="1:13">
+      <x:c r="A1916" s="0">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B1916" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1916" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1916" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1916" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1916" s="0">
+        <x:v>24.6</x:v>
+      </x:c>
+      <x:c r="H1916" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1916" s="0" t="s">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="J1916" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1916" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1917" spans="1:13">
+      <x:c r="A1917" s="0">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B1917" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1917" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1917" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1917" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1917" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H1917" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1917" s="0" t="s">
+        <x:v>2019</x:v>
+      </x:c>
+      <x:c r="J1917" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1917" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1918" spans="1:13">
+      <x:c r="A1918" s="0">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B1918" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1918" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1918" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1918" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1918" s="0">
+        <x:v>18.3</x:v>
+      </x:c>
+      <x:c r="H1918" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1918" s="0" t="s">
+        <x:v>2020</x:v>
+      </x:c>
+      <x:c r="J1918" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1918" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1919" spans="1:13">
+      <x:c r="A1919" s="0">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B1919" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1919" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1919" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1919" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1919" s="0">
+        <x:v>25.7</x:v>
+      </x:c>
+      <x:c r="H1919" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1919" s="0" t="s">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="J1919" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1919" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1920" spans="1:13">
+      <x:c r="A1920" s="0">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B1920" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1920" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1920" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E1920" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1920" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H1920" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1920" s="0" t="s">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="J1920" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="K1920" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1921" spans="1:13">
+      <x:c r="A1921" s="0">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B1921" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1921" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1921" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1921" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1921" s="0">
+        <x:v>23.8</x:v>
+      </x:c>
+      <x:c r="H1921" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1921" s="0" t="s">
+        <x:v>2023</x:v>
+      </x:c>
+      <x:c r="J1921" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1921" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1922" spans="1:13">
+      <x:c r="A1922" s="0">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B1922" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1922" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1922" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E1922" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1922" s="0">
+        <x:v>23.3</x:v>
+      </x:c>
+      <x:c r="H1922" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1922" s="0" t="s">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="J1922" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="K1922" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1923" spans="1:13">
+      <x:c r="A1923" s="0">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B1923" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1923" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1923" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1923" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1923" s="0">
+        <x:v>1020.1</x:v>
+      </x:c>
+      <x:c r="H1923" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1923" s="0" t="s">
+        <x:v>2025</x:v>
+      </x:c>
+      <x:c r="J1923" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1923" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1924" spans="1:13">
+      <x:c r="A1924" s="0">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B1924" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1924" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1924" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E1924" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1924" s="0">
+        <x:v>1047.2</x:v>
+      </x:c>
+      <x:c r="H1924" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1924" s="0" t="s">
+        <x:v>2026</x:v>
+      </x:c>
+      <x:c r="J1924" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K1924" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1925" spans="1:13">
+      <x:c r="A1925" s="0">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B1925" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1925" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1925" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E1925" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1925" s="0">
+        <x:v>1032.9</x:v>
+      </x:c>
+      <x:c r="H1925" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1925" s="0" t="s">
+        <x:v>2027</x:v>
+      </x:c>
+      <x:c r="J1925" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="K1925" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1926" spans="1:13">
+      <x:c r="A1926" s="0">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B1926" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1926" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1926" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1926" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1926" s="0">
+        <x:v>71.2</x:v>
+      </x:c>
+      <x:c r="H1926" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1926" s="0" t="s">
+        <x:v>2028</x:v>
+      </x:c>
+      <x:c r="J1926" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1926" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1927" spans="1:13">
+      <x:c r="A1927" s="0">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B1927" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1927" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1927" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1927" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1927" s="0">
+        <x:v>43.1</x:v>
+      </x:c>
+      <x:c r="H1927" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1927" s="0" t="s">
+        <x:v>2029</x:v>
+      </x:c>
+      <x:c r="J1927" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1927" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1928" spans="1:13">
+      <x:c r="A1928" s="0">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B1928" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1928" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1928" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1928" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1928" s="0">
+        <x:v>97.2</x:v>
+      </x:c>
+      <x:c r="H1928" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1928" s="0" t="s">
+        <x:v>2030</x:v>
+      </x:c>
+      <x:c r="J1928" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1928" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1929" spans="1:13">
+      <x:c r="A1929" s="0">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B1929" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1929" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1929" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1929" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1929" s="0">
+        <x:v>17.5</x:v>
+      </x:c>
+      <x:c r="H1929" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1929" s="0" t="s">
+        <x:v>2031</x:v>
+      </x:c>
+      <x:c r="J1929" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1929" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1930" spans="1:13">
+      <x:c r="A1930" s="0">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B1930" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1930" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1930" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1930" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1930" s="0">
+        <x:v>12.5</x:v>
+      </x:c>
+      <x:c r="H1930" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1930" s="0" t="s">
+        <x:v>2032</x:v>
+      </x:c>
+      <x:c r="J1930" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1930" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1931" spans="1:13">
+      <x:c r="A1931" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B1931" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1931" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1931" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E1931" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1931" s="0">
+        <x:v>12.4</x:v>
+      </x:c>
+      <x:c r="H1931" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1931" s="0" t="s">
+        <x:v>2033</x:v>
+      </x:c>
+      <x:c r="J1931" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="K1931" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1932" spans="1:13">
+      <x:c r="A1932" s="0">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B1932" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1932" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1932" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1932" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1932" s="0">
+        <x:v>22.4</x:v>
+      </x:c>
+      <x:c r="G1932" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H1932" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1932" s="0" t="s">
+        <x:v>2034</x:v>
+      </x:c>
+      <x:c r="J1932" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1932" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1933" spans="1:13">
+      <x:c r="A1933" s="0">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B1933" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1933" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1933" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1933" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1933" s="0">
+        <x:v>1033.4</x:v>
+      </x:c>
+      <x:c r="G1933" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H1933" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1933" s="0" t="s">
+        <x:v>2035</x:v>
+      </x:c>
+      <x:c r="J1933" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1933" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1934" spans="1:13">
+      <x:c r="A1934" s="0">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B1934" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1934" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1934" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1934" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1934" s="0">
+        <x:v>70.5</x:v>
+      </x:c>
+      <x:c r="G1934" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H1934" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1934" s="0" t="s">
+        <x:v>2036</x:v>
+      </x:c>
+      <x:c r="J1934" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1934" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1935" spans="1:13">
+      <x:c r="A1935" s="0">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1935" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1935" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1935" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1935" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1935" s="0">
+        <x:v>14.1</x:v>
+      </x:c>
+      <x:c r="G1935" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H1935" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1935" s="0" t="s">
+        <x:v>2037</x:v>
+      </x:c>
+      <x:c r="J1935" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1935" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1936" spans="1:13">
+      <x:c r="A1936" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B1936" s="0" t="s">
+        <x:v>1584</x:v>
+      </x:c>
+      <x:c r="C1936" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1936" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G1936" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H1936" s="0" t="s">
+        <x:v>1585</x:v>
+      </x:c>
+      <x:c r="I1936" s="0" t="s">
+        <x:v>2038</x:v>
+      </x:c>
+      <x:c r="J1936" s="0" t="s">
+        <x:v>1587</x:v>
+      </x:c>
+      <x:c r="K1936" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="L1936" s="0">
+        <x:v>213.45</x:v>
+      </x:c>
+      <x:c r="M1936" s="0">
+        <x:v>387.117511815915</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1937" spans="1:13">
+      <x:c r="A1937" s="0">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B1937" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1937" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1937" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E1937" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1937" s="0">
+        <x:v>24.5</x:v>
+      </x:c>
+      <x:c r="H1937" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1937" s="0" t="s">
+        <x:v>2039</x:v>
+      </x:c>
+      <x:c r="J1937" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="K1937" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1938" spans="1:13">
+      <x:c r="A1938" s="0">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B1938" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1938" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1938" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E1938" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1938" s="0">
+        <x:v>22.9</x:v>
+      </x:c>
+      <x:c r="H1938" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1938" s="0" t="s">
+        <x:v>2040</x:v>
+      </x:c>
+      <x:c r="J1938" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="K1938" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1939" spans="1:13">
+      <x:c r="A1939" s="0">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B1939" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1939" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1939" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E1939" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1939" s="0">
+        <x:v>997.9</x:v>
+      </x:c>
+      <x:c r="H1939" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1939" s="0" t="s">
+        <x:v>2041</x:v>
+      </x:c>
+      <x:c r="J1939" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="K1939" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1940" spans="1:13">
+      <x:c r="A1940" s="0">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B1940" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1940" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D1940" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E1940" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1940" s="0">
+        <x:v>1033.1</x:v>
+      </x:c>
+      <x:c r="H1940" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1940" s="0" t="s">
+        <x:v>2042</x:v>
+      </x:c>
+      <x:c r="J1940" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="K1940" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1941" spans="1:13">
+      <x:c r="A1941" s="0">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B1941" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1941" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1941" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1941" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1941" s="0">
+        <x:v>23.7</x:v>
+      </x:c>
+      <x:c r="G1941" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1941" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1941" s="0" t="s">
+        <x:v>2043</x:v>
+      </x:c>
+      <x:c r="J1941" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1941" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1942" spans="1:13">
+      <x:c r="A1942" s="0">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B1942" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1942" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1942" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1942" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1942" s="0">
+        <x:v>1015.5</x:v>
+      </x:c>
+      <x:c r="G1942" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1942" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1942" s="0" t="s">
+        <x:v>2044</x:v>
+      </x:c>
+      <x:c r="J1942" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="K1942" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1943" spans="1:13">
+      <x:c r="A1943" s="0">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B1943" s="0" t="s">
+        <x:v>1584</x:v>
+      </x:c>
+      <x:c r="C1943" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E1943" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G1943" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1943" s="0" t="s">
+        <x:v>1585</x:v>
+      </x:c>
+      <x:c r="I1943" s="0" t="s">
+        <x:v>2045</x:v>
+      </x:c>
+      <x:c r="J1943" s="0" t="s">
+        <x:v>1587</x:v>
+      </x:c>
+      <x:c r="K1943" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="L1943" s="0">
+        <x:v>519.6</x:v>
+      </x:c>
+      <x:c r="M1943" s="0">
+        <x:v>496.004311137178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1944" spans="1:13">
+      <x:c r="A1944" s="0">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B1944" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1944" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D1944" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E1944" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1944" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1944" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1944" s="0" t="s">
+        <x:v>2046</x:v>
+      </x:c>
+      <x:c r="J1944" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="K1944" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1945" spans="1:13">
+      <x:c r="A1945" s="0">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B1945" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1945" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1945" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E1945" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1945" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G1945" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1945" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1945" s="0" t="s">
+        <x:v>2047</x:v>
+      </x:c>
+      <x:c r="J1945" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="K1945" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1946" spans="1:13">
+      <x:c r="A1946" s="0">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1946" s="0" t="s">
+        <x:v>1584</x:v>
+      </x:c>
+      <x:c r="C1946" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E1946" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G1946" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1946" s="0" t="s">
+        <x:v>1585</x:v>
+      </x:c>
+      <x:c r="I1946" s="0" t="s">
+        <x:v>2048</x:v>
+      </x:c>
+      <x:c r="J1946" s="0" t="s">
+        <x:v>1587</x:v>
+      </x:c>
+      <x:c r="K1946" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="L1946" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M1946" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/MonitorizacaoOceanica/MonitorizacaoOceanica/dados_servidor.xlsx
+++ b/MonitorizacaoOceanica/MonitorizacaoOceanica/dados_servidor.xlsx
@@ -6168,6 +6168,30 @@
   </x:si>
   <x:si>
     <x:t>2025-06-03T16:24:26.2416680Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:44:01.6633882+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:44:01.5981083+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:44:04.3206164Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:50:11.6496143+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:50:13.6292452+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:50:11.5949627+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:50:11.5950370+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T16:50:14.9380011Z</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -68941,6 +68965,277 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="1947" spans="1:13">
+      <x:c r="A1947" s="0">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B1947" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1947" s="0" t="s">
+        <x:v>1576</x:v>
+      </x:c>
+      <x:c r="D1947" s="0" t="s">
+        <x:v>998</x:v>
+      </x:c>
+      <x:c r="E1947" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1947" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H1947" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1947" s="0" t="s">
+        <x:v>2049</x:v>
+      </x:c>
+      <x:c r="J1947" s="0" t="s">
+        <x:v>998</x:v>
+      </x:c>
+      <x:c r="K1947" s="0" t="s">
+        <x:v>1576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1948" spans="1:13">
+      <x:c r="A1948" s="0">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B1948" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1948" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1948" s="0" t="s">
+        <x:v>1576</x:v>
+      </x:c>
+      <x:c r="E1948" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1948" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G1948" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1948" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1948" s="0" t="s">
+        <x:v>2050</x:v>
+      </x:c>
+      <x:c r="J1948" s="0" t="s">
+        <x:v>1576</x:v>
+      </x:c>
+      <x:c r="K1948" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1949" spans="1:13">
+      <x:c r="A1949" s="0">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B1949" s="0" t="s">
+        <x:v>1584</x:v>
+      </x:c>
+      <x:c r="C1949" s="0" t="s">
+        <x:v>1576</x:v>
+      </x:c>
+      <x:c r="E1949" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G1949" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1949" s="0" t="s">
+        <x:v>1585</x:v>
+      </x:c>
+      <x:c r="I1949" s="0" t="s">
+        <x:v>2051</x:v>
+      </x:c>
+      <x:c r="J1949" s="0" t="s">
+        <x:v>1587</x:v>
+      </x:c>
+      <x:c r="K1949" s="0" t="s">
+        <x:v>1576</x:v>
+      </x:c>
+      <x:c r="L1949" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M1949" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1950" spans="1:13">
+      <x:c r="A1950" s="0">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B1950" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1950" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+      <x:c r="D1950" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="E1950" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1950" s="0">
+        <x:v>25.4</x:v>
+      </x:c>
+      <x:c r="H1950" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1950" s="0" t="s">
+        <x:v>2052</x:v>
+      </x:c>
+      <x:c r="J1950" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="K1950" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1951" spans="1:13">
+      <x:c r="A1951" s="0">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B1951" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1951" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+      <x:c r="D1951" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="E1951" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1951" s="0">
+        <x:v>1037.9</x:v>
+      </x:c>
+      <x:c r="H1951" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1951" s="0" t="s">
+        <x:v>2053</x:v>
+      </x:c>
+      <x:c r="J1951" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="K1951" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1952" spans="1:13">
+      <x:c r="A1952" s="0">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B1952" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1952" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1952" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+      <x:c r="E1952" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1952" s="0">
+        <x:v>25.4</x:v>
+      </x:c>
+      <x:c r="G1952" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1952" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1952" s="0" t="s">
+        <x:v>2054</x:v>
+      </x:c>
+      <x:c r="J1952" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+      <x:c r="K1952" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1953" spans="1:13">
+      <x:c r="A1953" s="0">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B1953" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1953" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1953" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+      <x:c r="E1953" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1953" s="0">
+        <x:v>1037.9</x:v>
+      </x:c>
+      <x:c r="G1953" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1953" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1953" s="0" t="s">
+        <x:v>2055</x:v>
+      </x:c>
+      <x:c r="J1953" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+      <x:c r="K1953" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1954" spans="1:13">
+      <x:c r="A1954" s="0">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B1954" s="0" t="s">
+        <x:v>1584</x:v>
+      </x:c>
+      <x:c r="C1954" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+      <x:c r="E1954" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G1954" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H1954" s="0" t="s">
+        <x:v>1585</x:v>
+      </x:c>
+      <x:c r="I1954" s="0" t="s">
+        <x:v>2056</x:v>
+      </x:c>
+      <x:c r="J1954" s="0" t="s">
+        <x:v>1587</x:v>
+      </x:c>
+      <x:c r="K1954" s="0" t="s">
+        <x:v>1808</x:v>
+      </x:c>
+      <x:c r="L1954" s="0">
+        <x:v>531.65</x:v>
+      </x:c>
+      <x:c r="M1954" s="0">
+        <x:v>506.25</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/MonitorizacaoOceanica/MonitorizacaoOceanica/dados_servidor.xlsx
+++ b/MonitorizacaoOceanica/MonitorizacaoOceanica/dados_servidor.xlsx
@@ -6192,6 +6192,39 @@
   </x:si>
   <x:si>
     <x:t>2025-06-03T16:50:14.9380011Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:04.7698370+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:06.7121319+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:07.0949350+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:07.4290142+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:07.8775976+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:08.3497482+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:04.7149517+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:04.7150163+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:04.7150193+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T18:18:04.7150213+01:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-06-03T17:18:10.0386423Z</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -69236,6 +69269,373 @@
         <x:v>506.25</x:v>
       </x:c>
     </x:row>
+    <x:row r="1955" spans="1:13">
+      <x:c r="A1955" s="0">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B1955" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1955" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="D1955" s="0" t="s">
+        <x:v>998</x:v>
+      </x:c>
+      <x:c r="E1955" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1955" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H1955" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1955" s="0" t="s">
+        <x:v>2057</x:v>
+      </x:c>
+      <x:c r="J1955" s="0" t="s">
+        <x:v>998</x:v>
+      </x:c>
+      <x:c r="K1955" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1956" spans="1:13">
+      <x:c r="A1956" s="0">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B1956" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1956" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="D1956" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="E1956" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1956" s="0">
+        <x:v>24.8</x:v>
+      </x:c>
+      <x:c r="H1956" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1956" s="0" t="s">
+        <x:v>2058</x:v>
+      </x:c>
+      <x:c r="J1956" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="K1956" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1957" spans="1:13">
+      <x:c r="A1957" s="0">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B1957" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1957" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="D1957" s="0" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+      <x:c r="E1957" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1957" s="0">
+        <x:v>22.5</x:v>
+      </x:c>
+      <x:c r="H1957" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1957" s="0" t="s">
+        <x:v>2059</x:v>
+      </x:c>
+      <x:c r="J1957" s="0" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+      <x:c r="K1957" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1958" spans="1:13">
+      <x:c r="A1958" s="0">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B1958" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1958" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="D1958" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="E1958" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1958" s="0">
+        <x:v>1015.3</x:v>
+      </x:c>
+      <x:c r="H1958" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1958" s="0" t="s">
+        <x:v>2060</x:v>
+      </x:c>
+      <x:c r="J1958" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="K1958" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1959" spans="1:13">
+      <x:c r="A1959" s="0">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B1959" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1959" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="D1959" s="0" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+      <x:c r="E1959" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1959" s="0">
+        <x:v>45.9</x:v>
+      </x:c>
+      <x:c r="H1959" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1959" s="0" t="s">
+        <x:v>2061</x:v>
+      </x:c>
+      <x:c r="J1959" s="0" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+      <x:c r="K1959" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1960" spans="1:13">
+      <x:c r="A1960" s="0">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B1960" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1960" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="D1960" s="0" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+      <x:c r="E1960" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1960" s="0">
+        <x:v>10.9</x:v>
+      </x:c>
+      <x:c r="H1960" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1960" s="0" t="s">
+        <x:v>2062</x:v>
+      </x:c>
+      <x:c r="J1960" s="0" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+      <x:c r="K1960" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1961" spans="1:13">
+      <x:c r="A1961" s="0">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B1961" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1961" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1961" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="E1961" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1961" s="0">
+        <x:v>22.4</x:v>
+      </x:c>
+      <x:c r="G1961" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H1961" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1961" s="0" t="s">
+        <x:v>2063</x:v>
+      </x:c>
+      <x:c r="J1961" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="K1961" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1962" spans="1:13">
+      <x:c r="A1962" s="0">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B1962" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1962" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1962" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="E1962" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1962" s="0">
+        <x:v>1015.3</x:v>
+      </x:c>
+      <x:c r="G1962" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1962" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1962" s="0" t="s">
+        <x:v>2064</x:v>
+      </x:c>
+      <x:c r="J1962" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="K1962" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1963" spans="1:13">
+      <x:c r="A1963" s="0">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B1963" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1963" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1963" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="E1963" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1963" s="0">
+        <x:v>45.9</x:v>
+      </x:c>
+      <x:c r="G1963" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1963" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1963" s="0" t="s">
+        <x:v>2065</x:v>
+      </x:c>
+      <x:c r="J1963" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="K1963" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1964" spans="1:13">
+      <x:c r="A1964" s="0">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B1964" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1964" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1964" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="E1964" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1964" s="0">
+        <x:v>10.9</x:v>
+      </x:c>
+      <x:c r="G1964" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1964" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1964" s="0" t="s">
+        <x:v>2066</x:v>
+      </x:c>
+      <x:c r="J1964" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="K1964" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1965" spans="1:13">
+      <x:c r="A1965" s="0">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B1965" s="0" t="s">
+        <x:v>1584</x:v>
+      </x:c>
+      <x:c r="C1965" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="E1965" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G1965" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H1965" s="0" t="s">
+        <x:v>1585</x:v>
+      </x:c>
+      <x:c r="I1965" s="0" t="s">
+        <x:v>2067</x:v>
+      </x:c>
+      <x:c r="J1965" s="0" t="s">
+        <x:v>1587</x:v>
+      </x:c>
+      <x:c r="K1965" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="L1965" s="0">
+        <x:v>223.39</x:v>
+      </x:c>
+      <x:c r="M1965" s="0">
+        <x:v>396.120126855478</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
